--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>937.2784043433243</v>
+        <v>999.7653095708093</v>
       </c>
       <c r="AB2" t="n">
-        <v>1282.425662627414</v>
+        <v>1367.923003087357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1160.032757281975</v>
+        <v>1237.370351564692</v>
       </c>
       <c r="AD2" t="n">
-        <v>937278.4043433242</v>
+        <v>999765.3095708094</v>
       </c>
       <c r="AE2" t="n">
-        <v>1282425.662627414</v>
+        <v>1367923.003087357</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.72099859128113e-06</v>
+        <v>2.909433507972918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1160032.757281975</v>
+        <v>1237370.351564692</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.7140159626023</v>
+        <v>354.8722172303242</v>
       </c>
       <c r="AB3" t="n">
-        <v>442.9197978944975</v>
+        <v>485.5518234718199</v>
       </c>
       <c r="AC3" t="n">
-        <v>400.6481540252865</v>
+        <v>439.211438915933</v>
       </c>
       <c r="AD3" t="n">
-        <v>323714.0159626023</v>
+        <v>354872.2172303242</v>
       </c>
       <c r="AE3" t="n">
-        <v>442919.7978944975</v>
+        <v>485551.8234718199</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.206539716568555e-06</v>
+        <v>5.420814487178498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>400648.1540252865</v>
+        <v>439211.438915933</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.9773651394017</v>
+        <v>273.050225552555</v>
       </c>
       <c r="AB4" t="n">
-        <v>331.0841062715004</v>
+        <v>373.5993647267853</v>
       </c>
       <c r="AC4" t="n">
-        <v>299.4859038485086</v>
+        <v>337.9435657072618</v>
       </c>
       <c r="AD4" t="n">
-        <v>241977.3651394017</v>
+        <v>273050.225552555</v>
       </c>
       <c r="AE4" t="n">
-        <v>331084.1062715005</v>
+        <v>373599.3647267853</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.717135212837432e-06</v>
+        <v>6.284001507429852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>299485.9038485086</v>
+        <v>337943.5657072618</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.6569626826716</v>
+        <v>270.7298230958249</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.9092292612724</v>
+        <v>370.4244877165556</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.6140326441678</v>
+        <v>335.0716945029205</v>
       </c>
       <c r="AD5" t="n">
-        <v>239656.9626826716</v>
+        <v>270729.8230958249</v>
       </c>
       <c r="AE5" t="n">
-        <v>327909.2292612724</v>
+        <v>370424.4877165556</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.742519103223371e-06</v>
+        <v>6.32691423357949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.413888888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>296614.0326441678</v>
+        <v>335071.6945029205</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.4999155206691</v>
+        <v>612.8622764046606</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.3196413291096</v>
+        <v>838.5452041522761</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.5607141566802</v>
+        <v>758.515626773568</v>
       </c>
       <c r="AD2" t="n">
-        <v>572499.9155206691</v>
+        <v>612862.2764046607</v>
       </c>
       <c r="AE2" t="n">
-        <v>783319.6413291096</v>
+        <v>838545.2041522762</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.272634996715242e-06</v>
+        <v>3.935728850602828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.22361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>708560.7141566802</v>
+        <v>758515.626773568</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.1015282170735</v>
+        <v>270.3732317486568</v>
       </c>
       <c r="AB3" t="n">
-        <v>328.5175034382879</v>
+        <v>369.9365837036602</v>
       </c>
       <c r="AC3" t="n">
-        <v>297.1642539874472</v>
+        <v>334.6303553642383</v>
       </c>
       <c r="AD3" t="n">
-        <v>240101.5282170734</v>
+        <v>270373.2317486568</v>
       </c>
       <c r="AE3" t="n">
-        <v>328517.5034382879</v>
+        <v>369936.5837036602</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.666036877628438e-06</v>
+        <v>6.348809697778331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.718055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>297164.2539874472</v>
+        <v>334630.3553642383</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.2260451996335</v>
+        <v>257.4977487312135</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.900699547614</v>
+        <v>352.3197798128064</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.2287731347541</v>
+        <v>318.6948745114939</v>
       </c>
       <c r="AD4" t="n">
-        <v>227226.0451996335</v>
+        <v>257497.7487312135</v>
       </c>
       <c r="AE4" t="n">
-        <v>310900.699547614</v>
+        <v>352319.7798128063</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.78888201258602e-06</v>
+        <v>6.561551797810918e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.531944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>281228.7731347541</v>
+        <v>318694.874511494</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.3191590540095</v>
+        <v>249.5800045461347</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.186881446636</v>
+        <v>341.4863729125663</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.1557124104285</v>
+        <v>308.8953927610273</v>
       </c>
       <c r="AD2" t="n">
-        <v>222319.1590540095</v>
+        <v>249580.0045461347</v>
       </c>
       <c r="AE2" t="n">
-        <v>304186.881446636</v>
+        <v>341486.3729125663</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.611329433106604e-06</v>
+        <v>6.833412408405591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.476388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>275155.7124104284</v>
+        <v>308895.3927610273</v>
       </c>
     </row>
     <row r="3">
@@ -3257,28 +3257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.1301611853803</v>
+        <v>250.3910066775055</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.2965303416659</v>
+        <v>342.5960218075962</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.159457972319</v>
+        <v>309.8991383229178</v>
       </c>
       <c r="AD3" t="n">
-        <v>223130.1611853803</v>
+        <v>250391.0066775055</v>
       </c>
       <c r="AE3" t="n">
-        <v>305296.5303416658</v>
+        <v>342596.0218075961</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.617728617926284e-06</v>
+        <v>6.845521043123214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.465277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>276159.457972319</v>
+        <v>309899.1383229179</v>
       </c>
     </row>
   </sheetData>
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.4086018637371</v>
+        <v>291.9838350552262</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.4072698373278</v>
+        <v>399.5051645402393</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.0105058388327</v>
+        <v>361.3769523455381</v>
       </c>
       <c r="AD2" t="n">
-        <v>263408.6018637372</v>
+        <v>291983.8350552262</v>
       </c>
       <c r="AE2" t="n">
-        <v>360407.2698373278</v>
+        <v>399505.1645402393</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391208763707128e-06</v>
+        <v>6.178045882456945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.598611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>326010.5058388327</v>
+        <v>361376.9523455381</v>
       </c>
     </row>
     <row r="3">
@@ -3660,28 +3660,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.3336831247591</v>
+        <v>252.1495245315052</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.2608009859067</v>
+        <v>345.0021035157697</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.2724017340175</v>
+        <v>312.075586969821</v>
       </c>
       <c r="AD3" t="n">
-        <v>214333.6831247591</v>
+        <v>252149.5245315052</v>
       </c>
       <c r="AE3" t="n">
-        <v>293260.8009859067</v>
+        <v>345002.1035157697</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.754817228300335e-06</v>
+        <v>6.840461538357437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.959722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>265272.4017340175</v>
+        <v>312075.586969821</v>
       </c>
     </row>
   </sheetData>
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.6053851406484</v>
+        <v>264.0134245504043</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.1021703590644</v>
+        <v>361.2348149201197</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.0748755038537</v>
+        <v>326.7590711803896</v>
       </c>
       <c r="AD2" t="n">
-        <v>237605.3851406484</v>
+        <v>264013.4245504043</v>
       </c>
       <c r="AE2" t="n">
-        <v>325102.1703590644</v>
+        <v>361234.8149201197</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.390206446651239e-06</v>
+        <v>6.643712309333822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.165277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>294074.8755038537</v>
+        <v>326759.0711803896</v>
       </c>
     </row>
   </sheetData>
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.640962200417</v>
+        <v>690.5194946504973</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.1849834502688</v>
+        <v>944.7992361509046</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.6585569596133</v>
+        <v>854.6289230867177</v>
       </c>
       <c r="AD2" t="n">
-        <v>639640.962200417</v>
+        <v>690519.4946504973</v>
       </c>
       <c r="AE2" t="n">
-        <v>875184.9834502687</v>
+        <v>944799.2361509046</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.127337699198848e-06</v>
+        <v>3.660044533029698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>791658.5569596133</v>
+        <v>854628.9230867177</v>
       </c>
     </row>
     <row r="3">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.2083832064949</v>
+        <v>286.7355026765463</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.5556130190949</v>
+        <v>392.3241646396463</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.0990773205501</v>
+        <v>354.8812969968611</v>
       </c>
       <c r="AD3" t="n">
-        <v>256208.3832064949</v>
+        <v>286735.5026765463</v>
       </c>
       <c r="AE3" t="n">
-        <v>350555.6130190949</v>
+        <v>392324.1646396463</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.552941112357131e-06</v>
+        <v>6.112768414416022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.847222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>317099.0773205501</v>
+        <v>354881.2969968611</v>
       </c>
     </row>
     <row r="4">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>228.8207196047505</v>
+        <v>259.1772468742093</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.0826034207634</v>
+        <v>354.6177432664486</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.2024391645722</v>
+        <v>320.7735235582266</v>
       </c>
       <c r="AD4" t="n">
-        <v>228820.7196047505</v>
+        <v>259177.2468742093</v>
       </c>
       <c r="AE4" t="n">
-        <v>313082.6034207634</v>
+        <v>354617.7432664486</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.781318830768031e-06</v>
+        <v>6.505687987105587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.493055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>283202.4391645722</v>
+        <v>320773.5235582266</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.0052293141012</v>
+        <v>280.4751312457894</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.5952077321479</v>
+        <v>383.7584482599896</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.471033520633</v>
+        <v>347.1330805664203</v>
       </c>
       <c r="AD2" t="n">
-        <v>246005.2293141012</v>
+        <v>280475.1312457894</v>
       </c>
       <c r="AE2" t="n">
-        <v>336595.2077321478</v>
+        <v>383758.4482599896</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.195447167734763e-06</v>
+        <v>6.405786322696164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.779166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>304471.033520633</v>
+        <v>347133.0805664203</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.4815922725188</v>
+        <v>429.7385992497786</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.2741413793034</v>
+        <v>587.9873102225069</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.2837671845289</v>
+        <v>531.8706265802431</v>
       </c>
       <c r="AD2" t="n">
-        <v>390481.5922725188</v>
+        <v>429738.5992497786</v>
       </c>
       <c r="AE2" t="n">
-        <v>534274.1413793034</v>
+        <v>587987.310222507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774090411800618e-06</v>
+        <v>4.913120253357359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.784722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>483283.7671845289</v>
+        <v>531870.6265802431</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.1030652036315</v>
+        <v>248.5458204365759</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.7864799565039</v>
+        <v>340.0713565888858</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.1752790625109</v>
+        <v>307.6154236092906</v>
       </c>
       <c r="AD3" t="n">
-        <v>219103.0652036315</v>
+        <v>248545.8204365759</v>
       </c>
       <c r="AE3" t="n">
-        <v>299786.4799565039</v>
+        <v>340071.3565888858</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.789748646758392e-06</v>
+        <v>6.711926457882345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.698611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>271175.2790625109</v>
+        <v>307615.4236092906</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.9419737694581</v>
+        <v>249.3847290024025</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.9343116663011</v>
+        <v>341.219188298683</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.2135633249174</v>
+        <v>308.653707871697</v>
       </c>
       <c r="AD4" t="n">
-        <v>219941.9737694581</v>
+        <v>249384.7290024025</v>
       </c>
       <c r="AE4" t="n">
-        <v>300934.3116663012</v>
+        <v>341219.188298683</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.791925501517946e-06</v>
+        <v>6.715781829416845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.695833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>272213.5633249174</v>
+        <v>308653.707871697</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>499.8518903843397</v>
+        <v>549.7775079988963</v>
       </c>
       <c r="AB2" t="n">
-        <v>683.9194083329124</v>
+        <v>752.2298409159489</v>
       </c>
       <c r="AC2" t="n">
-        <v>618.6470998885369</v>
+        <v>680.4380806601425</v>
       </c>
       <c r="AD2" t="n">
-        <v>499851.8903843397</v>
+        <v>549777.5079988963</v>
       </c>
       <c r="AE2" t="n">
-        <v>683919.4083329125</v>
+        <v>752229.8409159489</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.435144099648658e-06</v>
+        <v>4.24667867494198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.68888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>618647.0998885368</v>
+        <v>680438.0806601426</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.2042855507702</v>
+        <v>258.2108606322499</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.2391711529569</v>
+        <v>353.2954909762477</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.4395028886403</v>
+        <v>319.5774651708097</v>
       </c>
       <c r="AD3" t="n">
-        <v>228204.2855507702</v>
+        <v>258210.8606322499</v>
       </c>
       <c r="AE3" t="n">
-        <v>312239.1711529569</v>
+        <v>353295.4909762476</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.748695928175354e-06</v>
+        <v>6.53739836559199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.644444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>282439.5028886403</v>
+        <v>319577.4651708096</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.3684567253358</v>
+        <v>254.3750318068122</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.9908209291756</v>
+        <v>348.047140752295</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.6920478441092</v>
+        <v>314.8300101262299</v>
       </c>
       <c r="AD4" t="n">
-        <v>224368.4567253358</v>
+        <v>254375.0318068122</v>
       </c>
       <c r="AE4" t="n">
-        <v>306990.8209291757</v>
+        <v>348047.140752295</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.79531467783079e-06</v>
+        <v>6.618697394278942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.574999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>277692.0478441092</v>
+        <v>314830.0101262298</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>830.896332512163</v>
+        <v>882.5835486399608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1136.869018702243</v>
+        <v>1207.589748087337</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.367835162989</v>
+        <v>1092.339077392737</v>
       </c>
       <c r="AD2" t="n">
-        <v>830896.332512163</v>
+        <v>882583.5486399608</v>
       </c>
       <c r="AE2" t="n">
-        <v>1136869.018702243</v>
+        <v>1207589.748087337</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.850044011909292e-06</v>
+        <v>3.144952206028133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028367.835162989</v>
+        <v>1092339.077392737</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.3682236406531</v>
+        <v>334.2952482661806</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.0817872465982</v>
+        <v>457.3975067432766</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.4669640427293</v>
+        <v>413.74413066113</v>
       </c>
       <c r="AD3" t="n">
-        <v>303368.2236406531</v>
+        <v>334295.2482661806</v>
       </c>
       <c r="AE3" t="n">
-        <v>415081.7872465982</v>
+        <v>457397.5067432765</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.320550340427924e-06</v>
+        <v>5.644715504675404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>375466.9640427293</v>
+        <v>413744.1306611301</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.3962990011647</v>
+        <v>267.2379827721235</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.4478453619076</v>
+        <v>365.6467977365445</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.5784369625654</v>
+        <v>330.7499805490717</v>
       </c>
       <c r="AD4" t="n">
-        <v>236396.2990011647</v>
+        <v>267237.9827721235</v>
       </c>
       <c r="AE4" t="n">
-        <v>323447.8453619076</v>
+        <v>365646.7977365445</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.752143947848143e-06</v>
+        <v>6.378396032828378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.443055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>292578.4369625653</v>
+        <v>330749.9805490717</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.7905065308717</v>
+        <v>267.6321903018305</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.9872174952613</v>
+        <v>366.1861698698985</v>
       </c>
       <c r="AC5" t="n">
-        <v>293.0663321765255</v>
+        <v>331.2378757630318</v>
       </c>
       <c r="AD5" t="n">
-        <v>236790.5065308717</v>
+        <v>267632.1903018305</v>
       </c>
       <c r="AE5" t="n">
-        <v>323987.2174952613</v>
+        <v>366186.1698698985</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.749644087089661e-06</v>
+        <v>6.374146435220678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.447222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>293066.3321765255</v>
+        <v>331237.8757630318</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.4473961521476</v>
+        <v>336.7946407421919</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.3488939852377</v>
+        <v>460.8172857943692</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.376648664558</v>
+        <v>416.8375307992764</v>
       </c>
       <c r="AD2" t="n">
-        <v>298447.3961521476</v>
+        <v>336794.6407421919</v>
       </c>
       <c r="AE2" t="n">
-        <v>408348.8939852377</v>
+        <v>460817.2857943692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.171544294138143e-06</v>
+        <v>5.719044876390369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>369376.6486645581</v>
+        <v>416837.5307992764</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.7596524601898</v>
+        <v>244.5840915436514</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.2118751399692</v>
+        <v>334.6507443384457</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.0372681091666</v>
+        <v>302.7121469841537</v>
       </c>
       <c r="AD3" t="n">
-        <v>215759.6524601898</v>
+        <v>244584.0915436514</v>
       </c>
       <c r="AE3" t="n">
-        <v>295211.8751399692</v>
+        <v>334650.7443384457</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.771617783177522e-06</v>
+        <v>6.801119378484293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.858333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>267037.2681091666</v>
+        <v>302712.1469841537</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.7335238073931</v>
+        <v>252.4034339598009</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.4903218164692</v>
+        <v>345.3495135972571</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.1438770677735</v>
+        <v>312.3898407207244</v>
       </c>
       <c r="AD2" t="n">
-        <v>224733.5238073931</v>
+        <v>252403.4339598009</v>
       </c>
       <c r="AE2" t="n">
-        <v>307490.3218164693</v>
+        <v>345349.5135972571</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.647059680719067e-06</v>
+        <v>6.804247608080186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.311111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>278143.8770677735</v>
+        <v>312389.8407207244</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.9263828123483</v>
+        <v>250.5962929647561</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.0177117816162</v>
+        <v>342.8769035624041</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.9072494643162</v>
+        <v>310.153213117267</v>
       </c>
       <c r="AD3" t="n">
-        <v>222926.3828123483</v>
+        <v>250596.2929647561</v>
       </c>
       <c r="AE3" t="n">
-        <v>305017.7117816163</v>
+        <v>342876.9035624041</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.678876995272777e-06</v>
+        <v>6.863608546863873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.256944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>275907.2494643162</v>
+        <v>310153.213117267</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.1913078124502</v>
+        <v>259.9732575438521</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7484379713073</v>
+        <v>355.7068801821661</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.472797575553</v>
+        <v>321.7587147753213</v>
       </c>
       <c r="AD2" t="n">
-        <v>224191.3078124502</v>
+        <v>259973.2575438521</v>
       </c>
       <c r="AE2" t="n">
-        <v>306748.4379713073</v>
+        <v>355706.8801821661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.521578105017268e-06</v>
+        <v>6.772125288769336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.761111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>277472.7975755531</v>
+        <v>321758.7147753213</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1533583009988</v>
+        <v>313.0783511969403</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.003987269329</v>
+        <v>428.3676121497046</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.59588743171</v>
+        <v>387.4848084638556</v>
       </c>
       <c r="AD2" t="n">
-        <v>271153.3583009988</v>
+        <v>313078.3511969403</v>
       </c>
       <c r="AE2" t="n">
-        <v>371003.987269329</v>
+        <v>428367.6121497046</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.891050932613211e-06</v>
+        <v>5.963079691633132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.838888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>335595.88743171</v>
+        <v>387484.8084638556</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.0059562274863</v>
+        <v>488.5616087622153</v>
       </c>
       <c r="AB2" t="n">
-        <v>614.3497580552054</v>
+        <v>668.4715469254503</v>
       </c>
       <c r="AC2" t="n">
-        <v>555.7170793917167</v>
+        <v>604.6735606925931</v>
       </c>
       <c r="AD2" t="n">
-        <v>449005.9562274863</v>
+        <v>488561.6087622152</v>
       </c>
       <c r="AE2" t="n">
-        <v>614349.7580552053</v>
+        <v>668471.5469254503</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.593782120876423e-06</v>
+        <v>4.557172867444486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.238888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>555717.0793917166</v>
+        <v>604673.5606925931</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.47831952945</v>
+        <v>251.2089974400117</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.0364077139124</v>
+        <v>343.7152328560622</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.1150382760557</v>
+        <v>310.9115334397412</v>
       </c>
       <c r="AD3" t="n">
-        <v>221478.31952945</v>
+        <v>251208.9974400117</v>
       </c>
       <c r="AE3" t="n">
-        <v>303036.4077139124</v>
+        <v>343715.2328560622</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792273485858713e-06</v>
+        <v>6.662874917899791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.634722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>274115.0382760557</v>
+        <v>310911.5334397412</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.5089489988931</v>
+        <v>252.2396269094549</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.446560422167</v>
+        <v>345.1253855643168</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.3906079889966</v>
+        <v>312.1871031526823</v>
       </c>
       <c r="AD4" t="n">
-        <v>222508.9489988931</v>
+        <v>252239.6269094549</v>
       </c>
       <c r="AE4" t="n">
-        <v>304446.560422167</v>
+        <v>345125.3855643168</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.791658006919192e-06</v>
+        <v>6.661793545682328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.63611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>275390.6079889966</v>
+        <v>312187.1031526822</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.0400345495734</v>
+        <v>778.2443170656308</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.7682500133296</v>
+        <v>1064.828208325313</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.8289643980646</v>
+        <v>963.2024986185215</v>
       </c>
       <c r="AD2" t="n">
-        <v>727040.0345495734</v>
+        <v>778244.3170656308</v>
       </c>
       <c r="AE2" t="n">
-        <v>994768.2500133297</v>
+        <v>1064828.208325313</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.988351294913136e-06</v>
+        <v>3.399859127670018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>899828.9643980647</v>
+        <v>963202.4986185215</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.0510783230799</v>
+        <v>314.9120237035989</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.9687756419254</v>
+        <v>430.8765237692365</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.1822819666412</v>
+        <v>389.754273079699</v>
       </c>
       <c r="AD3" t="n">
-        <v>274051.0783230799</v>
+        <v>314912.0237035989</v>
       </c>
       <c r="AE3" t="n">
-        <v>374968.7756419254</v>
+        <v>430876.5237692365</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.435355044880123e-06</v>
+        <v>5.87407428254934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.994444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>339182.2819666412</v>
+        <v>389754.273079699</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.5899581263861</v>
+        <v>263.1930862430434</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.2398418531303</v>
+        <v>360.1123918572166</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.8674779991853</v>
+        <v>325.7437705992794</v>
       </c>
       <c r="AD4" t="n">
-        <v>232589.9581263861</v>
+        <v>263193.0862430434</v>
       </c>
       <c r="AE4" t="n">
-        <v>318239.8418531303</v>
+        <v>360112.3918572166</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.769267581505356e-06</v>
+        <v>6.445027508165514e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.463888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>287867.4779991853</v>
+        <v>325743.7705992794</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.7553199039619</v>
+        <v>263.3584480206192</v>
       </c>
       <c r="AB5" t="n">
-        <v>318.4660971324561</v>
+        <v>360.3386471365425</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.0721397922036</v>
+        <v>325.9484323922978</v>
       </c>
       <c r="AD5" t="n">
-        <v>232755.3199039619</v>
+        <v>263358.4480206192</v>
       </c>
       <c r="AE5" t="n">
-        <v>318466.0971324561</v>
+        <v>360338.6471365425</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.777719186562035e-06</v>
+        <v>6.459478810945319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>288072.1397922036</v>
+        <v>325948.4323922978</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.6047035275832</v>
+        <v>373.2944353698705</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.0844288503575</v>
+        <v>510.7579150612517</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.651809675886</v>
+        <v>462.0118965010411</v>
       </c>
       <c r="AD2" t="n">
-        <v>332604.7035275832</v>
+        <v>373294.4353698705</v>
       </c>
       <c r="AE2" t="n">
-        <v>455084.4288503575</v>
+        <v>510757.9150612517</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385539886307566e-06</v>
+        <v>5.113310733274082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>411651.809675886</v>
+        <v>462011.8965010411</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.0018658246741</v>
+        <v>265.0513464038947</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.2764086055557</v>
+        <v>362.6549453899456</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.3279232931357</v>
+        <v>328.043666391341</v>
       </c>
       <c r="AD2" t="n">
-        <v>237001.8658246741</v>
+        <v>265051.3464038947</v>
       </c>
       <c r="AE2" t="n">
-        <v>324276.4086055557</v>
+        <v>362654.9453899456</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.576264408070502e-06</v>
+        <v>6.589025899563638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.341666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>293327.9232931357</v>
+        <v>328043.666391341</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.9065663781809</v>
+        <v>250.9560469573981</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.990598062149</v>
+        <v>343.3691348463627</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.8827234401805</v>
+        <v>310.5984665383358</v>
       </c>
       <c r="AD3" t="n">
-        <v>222906.5663781809</v>
+        <v>250956.0469573982</v>
       </c>
       <c r="AE3" t="n">
-        <v>304990.5980621491</v>
+        <v>343369.1348463628</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.724540576222467e-06</v>
+        <v>6.862214735947372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.088888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>275882.7234401805</v>
+        <v>310598.4665383358</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.5753135807426</v>
+        <v>385.2597783437599</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.1996338649067</v>
+        <v>527.1294251918039</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.9426863522053</v>
+        <v>476.8209326822922</v>
       </c>
       <c r="AD2" t="n">
-        <v>346575.3135807426</v>
+        <v>385259.7783437599</v>
       </c>
       <c r="AE2" t="n">
-        <v>474199.6338649067</v>
+        <v>527129.4251918038</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.968206441951161e-06</v>
+        <v>5.302484193943226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.356944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>428942.6863522053</v>
+        <v>476820.9326822921</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.6117673584297</v>
+        <v>246.7530600811365</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.7460204532823</v>
+        <v>337.6184227795699</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.3295581504732</v>
+        <v>305.3965943600206</v>
       </c>
       <c r="AD3" t="n">
-        <v>217611.7673584297</v>
+        <v>246753.0600811365</v>
       </c>
       <c r="AE3" t="n">
-        <v>297746.0204532823</v>
+        <v>337618.4227795699</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.782934223199688e-06</v>
+        <v>6.757935917711106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.772222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>269329.5581504732</v>
+        <v>305396.5943600207</v>
       </c>
     </row>
   </sheetData>
